--- a/data/trans_camb/P38B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Edad-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_camb/P38B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,74</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 13,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,42; 5,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 10,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,58; 4,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 10,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; 2,9</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,87%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 29,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,24; 13,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,55; 18,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,07; 8,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 19,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,66; 5,79</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,28</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,95; -2,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,55; -4,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,87; 0,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,33; -6,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; -1,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,15; -6,65</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,01%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,36; -3,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,18; -6,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,05; 0,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,6; -7,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,55; -2,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,84; -8,52</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,88</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 0,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,89; -4,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; -1,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,1; -2,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,59; -1,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,03; -5,03</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,98%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,13; 0,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,1; -5,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,27; -1,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; -3,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,39; -1,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,48; -5,78</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,28</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,13</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 1,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,81; -1,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 3,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 4,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 1,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,65; -0,1</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,56%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,77; 1,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,36; -1,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,5; 3,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 4,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 1,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,01; -0,11</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 2,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 2,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,88; 1,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 2,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,49; 1,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 1,35</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,75%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 3,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 2,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,05; 1,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 2,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 1,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 1,44</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 5,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 4,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 2,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 3,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 2,62</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 5,51</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 4,64</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 2,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 3,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 2,76</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 1,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; -0,36</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 0,93</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 0,92</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,98; -0,07</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,36%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,07%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 1,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,89; -0,49</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 1,21</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 1,08</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 1,08</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; -0,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-0,66</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 5,91</t>
+          <t>-9,43; 11,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 4,99</t>
+          <t>-9,76; 7,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 2,9</t>
+          <t>-7,19; 6,42</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,21%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,87%</t>
+          <t>-1,22%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 13,59</t>
+          <t>-18,7; 24,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 8,24</t>
+          <t>-15,36; 12,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 5,79</t>
+          <t>-12,79; 12,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,76</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,96</t>
+          <t>-18,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,28</t>
+          <t>-14,29</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -4,63</t>
+          <t>-17,63; -3,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,33; -6,1</t>
+          <t>-41,32; -6,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,15; -6,65</t>
+          <t>-29,05; -7,07</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>-13,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,04%</t>
+          <t>-21,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,01%</t>
+          <t>-17,75%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,18; -6,24</t>
+          <t>-22,85; -4,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,6; -7,42</t>
+          <t>-48,88; -7,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,14 +896,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,84; -8,52</t>
+          <t>-36,29; -8,87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,34</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>-6,99</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -4,27</t>
+          <t>-12,58; -3,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,1; -2,64</t>
+          <t>-9,32; -2,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -5,03</t>
+          <t>-10,09; -4,15</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,95%</t>
+          <t>-9,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,2%</t>
+          <t>-6,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-8,98%</t>
+          <t>-7,96%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,1; -5,27</t>
+          <t>-14,67; -4,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,05; -3,0</t>
+          <t>-10,11; -2,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,14 +1052,14 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,48; -5,78</t>
+          <t>-11,34; -4,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,28</t>
+          <t>-27,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-14,38</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-28,81; -1,64</t>
+          <t>-62,17; -1,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,19</t>
+          <t>-1,24; 4,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,65; -0,1</t>
+          <t>-44,05; 0,23</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,27%</t>
+          <t>-29,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-15,88%</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,36; -1,84</t>
+          <t>-68,84; -1,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,78</t>
+          <t>-1,34; 5,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,14 +1208,14 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,01; -0,11</t>
+          <t>-48,23; 0,24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,46</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,51</t>
+          <t>-3,69; 2,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,49</t>
+          <t>-2,59; 2,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,35</t>
+          <t>-2,46; 1,6</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>-0,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>-0,49%</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,79</t>
+          <t>-3,87; 3,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,63</t>
+          <t>-2,68; 2,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,44</t>
+          <t>-2,59; 1,72</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,18</t>
+          <t>-1,4; 4,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 4,3</t>
+          <t>-3,56; 2,2</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,56</t>
+          <t>0,13; 5,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,7</t>
+          <t>0,89; 6,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,56</t>
+          <t>-0,16; 3,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,62</t>
+          <t>-0,39; 3,83</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,51</t>
+          <t>-1,43; 4,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,64</t>
+          <t>-3,64; 2,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,74</t>
+          <t>0,14; 5,69</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,85</t>
+          <t>0,91; 6,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,76</t>
+          <t>-0,16; 4,18</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,76</t>
+          <t>-0,39; 4,08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>1,65</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,46</t>
+          <t>1,59; 9,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -0,36</t>
+          <t>2,19; 9,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,05</t>
+          <t>-1,51; 3,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,93</t>
+          <t>-2,96; 1,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,92</t>
+          <t>0,54; 4,45</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,98; -0,07</t>
+          <t>-0,23; 3,56</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>1,67; 10,24</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 10,47</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 3,53</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 1,51</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 4,7</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 3,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-6,91</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-3,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 1,46</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-21,67; -0,53</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 1,05</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 1,36</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 0,92</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-13,05; -0,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-8,42%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-0,43%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-1,36%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-4,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-2,47; 1,79</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-8,89; -0,49</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-26,73; -0,65</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-2,35; 1,21</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 1,08</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; 1,55</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-1,81; 1,08</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; -0,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-15,24; -0,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P38B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 13,3</t>
+          <t>0,52; 14,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 11,07</t>
+          <t>-9,24; 10,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 10,34</t>
+          <t>-3,44; 10,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 7,44</t>
+          <t>-9,41; 7,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 10,36</t>
+          <t>0,91; 10,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 6,42</t>
+          <t>-8,02; 5,92</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 29,63</t>
+          <t>1,18; 32,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 24,0</t>
+          <t>-17,87; 21,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 18,03</t>
+          <t>-5,58; 17,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 12,85</t>
+          <t>-14,88; 12,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 19,72</t>
+          <t>1,57; 19,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 12,31</t>
+          <t>-14,26; 11,27</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,95; -2,37</t>
+          <t>-12,08; -1,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,63; -3,59</t>
+          <t>-17,56; -4,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 0,7</t>
+          <t>-7,73; 0,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-41,32; -6,13</t>
+          <t>-43,91; -6,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -1,77</t>
+          <t>-8,9; -1,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,05; -7,07</t>
+          <t>-29,87; -7,67</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -3,2</t>
+          <t>-15,48; -2,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,85; -4,79</t>
+          <t>-22,4; -5,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 0,83</t>
+          <t>-8,88; 1,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,88; -7,29</t>
+          <t>-52,42; -7,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,55; -2,23</t>
+          <t>-10,82; -2,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,29; -8,87</t>
+          <t>-37,04; -9,56</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 0,43</t>
+          <t>-7,78; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -3,36</t>
+          <t>-13,06; -3,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -1,15</t>
+          <t>-8,36; -1,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,32; -2,04</t>
+          <t>-9,26; -2,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,59; -1,32</t>
+          <t>-6,89; -1,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; -4,15</t>
+          <t>-9,91; -4,17</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 0,5</t>
+          <t>-9,07; 0,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,67; -4,1</t>
+          <t>-15,07; -4,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,27; -1,36</t>
+          <t>-9,16; -1,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,11; -2,29</t>
+          <t>-10,15; -2,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,39; -1,52</t>
+          <t>-7,76; -1,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,34; -4,77</t>
+          <t>-11,13; -4,85</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 1,08</t>
+          <t>-6,32; 1,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-62,17; -1,56</t>
+          <t>-61,4; -1,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,39</t>
+          <t>-3,45; 3,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,79</t>
+          <t>-1,27; 4,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,44</t>
+          <t>-3,79; 1,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-44,05; 0,23</t>
+          <t>-45,29; 0,23</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 1,2</t>
+          <t>-6,84; 1,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,84; -1,79</t>
+          <t>-68,33; -1,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 3,85</t>
+          <t>-3,76; 3,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,44</t>
+          <t>-1,38; 5,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 1,55</t>
+          <t>-4,14; 1,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,23; 0,24</t>
+          <t>-49,85; 0,26</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,8</t>
+          <t>-4,47; 2,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,82</t>
+          <t>-3,74; 2,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,38</t>
+          <t>-4,69; 1,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,59</t>
+          <t>-2,9; 2,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 1,01</t>
+          <t>-3,6; 1,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,6</t>
+          <t>-2,51; 1,68</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,07</t>
+          <t>-4,79; 2,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 3,13</t>
+          <t>-3,93; 2,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,46</t>
+          <t>-4,88; 1,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 2,76</t>
+          <t>-3,01; 2,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,1</t>
+          <t>-3,77; 1,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,72</t>
+          <t>-2,63; 1,8</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 4,62</t>
+          <t>-1,51; 4,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,2</t>
+          <t>-3,62; 2,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,3</t>
+          <t>0,02; 5,17</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,34</t>
+          <t>0,84; 6,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,96</t>
+          <t>0,06; 4,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,83</t>
+          <t>-0,44; 3,99</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,92</t>
+          <t>-1,54; 4,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,29</t>
+          <t>-3,68; 2,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,14; 5,69</t>
+          <t>0,02; 5,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,91; 6,85</t>
+          <t>0,86; 6,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,18</t>
+          <t>0,06; 4,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,08</t>
+          <t>-0,46; 4,27</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,15</t>
+          <t>1,49; 9,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,19; 9,35</t>
+          <t>2,06; 9,64</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,37</t>
+          <t>-1,69; 3,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,45</t>
+          <t>-3,03; 1,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,45</t>
+          <t>0,39; 4,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,56</t>
+          <t>-0,27; 3,77</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1,67; 10,24</t>
+          <t>1,54; 10,46</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2,27; 10,47</t>
+          <t>2,25; 10,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,53</t>
+          <t>-1,73; 3,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 1,51</t>
+          <t>-3,08; 1,57</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,7</t>
+          <t>0,41; 4,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,79</t>
+          <t>-0,27; 4,03</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,46</t>
+          <t>-2,18; 1,63</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-21,67; -0,53</t>
+          <t>-23,96; -0,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,05</t>
+          <t>-1,93; 1,21</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 1,36</t>
+          <t>-6,32; 1,4</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,92</t>
+          <t>-1,54; 0,92</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-13,05; -0,21</t>
+          <t>-13,92; -0,04</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,79</t>
+          <t>-2,64; 2,01</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-26,73; -0,65</t>
+          <t>-29,39; -0,44</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,21</t>
+          <t>-2,16; 1,38</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,55</t>
+          <t>-7,13; 1,61</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,08</t>
+          <t>-1,78; 1,1</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-15,24; -0,25</t>
+          <t>-16,25; -0,05</t>
         </is>
       </c>
     </row>
